--- a/dataset/Loinc Dataset v2.xlsx
+++ b/dataset/Loinc Dataset v2.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xps\Dropbox\Docencia Biomedica\ML-ranking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SamuelPC\Desktop\Data_science\ML_lab_ranking\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F311E117-A311-4CB7-A254-536CE0F28426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAE18AF-D565-4FE3-B950-D6C4355D9D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="10920" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glucose in blood" sheetId="1" r:id="rId1"/>
     <sheet name="bilirubin in plasma" sheetId="2" r:id="rId2"/>
     <sheet name="White blood cells count" sheetId="3" r:id="rId3"/>
+    <sheet name="Creatinine in blood" sheetId="4" r:id="rId4"/>
+    <sheet name="Cholesterol In Plasma" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="424">
   <si>
     <t>14749-6</t>
   </si>
@@ -708,6 +710,597 @@
   </si>
   <si>
     <t>Query: WHITE BLOOD CELLS COUNT</t>
+  </si>
+  <si>
+    <t>2345-7</t>
+  </si>
+  <si>
+    <t>Insulin [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCnc  </t>
+  </si>
+  <si>
+    <t>2564-2</t>
+  </si>
+  <si>
+    <t>Glucose [Mass/volume] in Cerebrospinal fluid</t>
+  </si>
+  <si>
+    <t>CSF</t>
+  </si>
+  <si>
+    <t>4001-8</t>
+  </si>
+  <si>
+    <t>Fructosamine [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Fructosamine</t>
+  </si>
+  <si>
+    <t>4548-4</t>
+  </si>
+  <si>
+    <t>Hemoglobin A1c [Mass/volume] in Blood</t>
+  </si>
+  <si>
+    <t>Hemoglobin A1c</t>
+  </si>
+  <si>
+    <t>74732-9</t>
+  </si>
+  <si>
+    <t>Glucose [Mass/volume] in Capillary Blood</t>
+  </si>
+  <si>
+    <t>Capillary Bld</t>
+  </si>
+  <si>
+    <t>10558-4</t>
+  </si>
+  <si>
+    <t>Glucose [Moles/volume] in Gastric fluid</t>
+  </si>
+  <si>
+    <t>Gastric fld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCnc  </t>
+  </si>
+  <si>
+    <t>41653-7</t>
+  </si>
+  <si>
+    <t>Glucose [Mass/volume] in Dialysis fluid</t>
+  </si>
+  <si>
+    <t>Dial fld</t>
+  </si>
+  <si>
+    <t>14743-9</t>
+  </si>
+  <si>
+    <t>Glucose [Moles/volume] in Synovial fluid</t>
+  </si>
+  <si>
+    <t>2349-9</t>
+  </si>
+  <si>
+    <t>Insulin [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>1492-8</t>
+  </si>
+  <si>
+    <t>Glucose [Mass/volume] in Fetal blood</t>
+  </si>
+  <si>
+    <t>Fetal Bld</t>
+  </si>
+  <si>
+    <t>24336-0</t>
+  </si>
+  <si>
+    <t>Glycated hemoglobin [Mass/volume] in Blood</t>
+  </si>
+  <si>
+    <t>Glycated hemoglobin</t>
+  </si>
+  <si>
+    <t>70207-3</t>
+  </si>
+  <si>
+    <t>Glucose [Mass/volume] in Serum or Plasma --2 hours post 75 g glucose PO</t>
+  </si>
+  <si>
+    <t>Glucose^2H post 75 g glucose PO</t>
+  </si>
+  <si>
+    <t>53121-0</t>
+  </si>
+  <si>
+    <t>Glucose [Mass/volume] in Arterial blood</t>
+  </si>
+  <si>
+    <t>Art Bld</t>
+  </si>
+  <si>
+    <t>2340-8</t>
+  </si>
+  <si>
+    <t>C-Peptide [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>C-Peptide</t>
+  </si>
+  <si>
+    <t>14768-6</t>
+  </si>
+  <si>
+    <t>Glucose [Moles/volume] in Serum or Plasma --1 hour post 50 g glucose PO</t>
+  </si>
+  <si>
+    <t>Glucose^1H post 50 g glucose PO</t>
+  </si>
+  <si>
+    <t>87146-9</t>
+  </si>
+  <si>
+    <t>Glucose [Mass/volume] in Venous blood</t>
+  </si>
+  <si>
+    <t>Ven Bld</t>
+  </si>
+  <si>
+    <t>97532-2</t>
+  </si>
+  <si>
+    <t>Glucose [Mass/volume] in Bone marrow fluid</t>
+  </si>
+  <si>
+    <t>BM fld</t>
+  </si>
+  <si>
+    <t>6876-4</t>
+  </si>
+  <si>
+    <t>Galactose [Mass/volume] in Blood</t>
+  </si>
+  <si>
+    <t>Galactose</t>
+  </si>
+  <si>
+    <t>51229-4</t>
+  </si>
+  <si>
+    <t>Lactate [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Lactate</t>
+  </si>
+  <si>
+    <t>53120-2</t>
+  </si>
+  <si>
+    <t>Glucose [Mass/volume] in Mixed venous blood</t>
+  </si>
+  <si>
+    <t>Mixed Ven Bld</t>
+  </si>
+  <si>
+    <t>48134-1</t>
+  </si>
+  <si>
+    <t>Bilirubin.total [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>48052-5</t>
+  </si>
+  <si>
+    <t>Bilirubin.direct [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.direct</t>
+  </si>
+  <si>
+    <t>77144-6</t>
+  </si>
+  <si>
+    <t>Bilirubin.indirect [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.indirect</t>
+  </si>
+  <si>
+    <t>58941-6</t>
+  </si>
+  <si>
+    <t>Bilirubin.total [Mass/volume] in Serum, Plasma or Blood</t>
+  </si>
+  <si>
+    <t>66832-9</t>
+  </si>
+  <si>
+    <t>Bilirubin.total [Mass/volume] in Serum or Plasma by Calculation</t>
+  </si>
+  <si>
+    <t>1925-7</t>
+  </si>
+  <si>
+    <t>Alkaline phosphatase Isoenzymes [Presence] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Alkaline phosphatase Isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrThr  </t>
+  </si>
+  <si>
+    <t>30239-8</t>
+  </si>
+  <si>
+    <t>Alanine aminotransferase/ Aspartate aminotransferase [Mass Ratio] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>ALT/AST Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCrto  </t>
+  </si>
+  <si>
+    <t>77145-3</t>
+  </si>
+  <si>
+    <t>Bilirubin.delta [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.delta</t>
+  </si>
+  <si>
+    <t>49135-3</t>
+  </si>
+  <si>
+    <t>Bilirubin.conjugated/Total in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.conjugated/Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFr  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCnc  </t>
+  </si>
+  <si>
+    <t>24326-6</t>
+  </si>
+  <si>
+    <t>Bilirubin [Presence] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>66845-1</t>
+  </si>
+  <si>
+    <t>Bilirubin.indirect [Moles/volume] in Serum or Plasma by Calculation</t>
+  </si>
+  <si>
+    <t>2885-2</t>
+  </si>
+  <si>
+    <t>Total protein [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Total protein</t>
+  </si>
+  <si>
+    <t>77142-0</t>
+  </si>
+  <si>
+    <t>Bilirubin.fraction unbound [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Bilirubin.unbound</t>
+  </si>
+  <si>
+    <t>77143-8</t>
+  </si>
+  <si>
+    <t>Bilirubin.fraction unbound [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>4580-9</t>
+  </si>
+  <si>
+    <t>Globulin [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Globulin</t>
+  </si>
+  <si>
+    <t>731-0</t>
+  </si>
+  <si>
+    <t>Eosinophils [#/volume] in Blood</t>
+  </si>
+  <si>
+    <t>Eosinophils</t>
+  </si>
+  <si>
+    <t>742-7</t>
+  </si>
+  <si>
+    <t>Basophils [#/volume] in Blood</t>
+  </si>
+  <si>
+    <t>Basophils</t>
+  </si>
+  <si>
+    <t>26499-4</t>
+  </si>
+  <si>
+    <t>Neutrophils [#/volume] in Blood</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>753-4</t>
+  </si>
+  <si>
+    <t>Reticulocytes [#/volume] in Blood</t>
+  </si>
+  <si>
+    <t>Reticulocytes</t>
+  </si>
+  <si>
+    <t>789-8</t>
+  </si>
+  <si>
+    <t>Hemoglobin [Mass/volume] in Blood</t>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+  </si>
+  <si>
+    <t>785-6</t>
+  </si>
+  <si>
+    <t>Hematocrit [Volume Fraction] in Blood</t>
+  </si>
+  <si>
+    <t>770-1</t>
+  </si>
+  <si>
+    <t>Mean corpuscular volume (MCV) in Blood</t>
+  </si>
+  <si>
+    <t>MCV</t>
+  </si>
+  <si>
+    <t>EntVol</t>
+  </si>
+  <si>
+    <t>32207-3</t>
+  </si>
+  <si>
+    <t>Immature granulocytes [#/volume] in Blood</t>
+  </si>
+  <si>
+    <t>Immature granulocytes</t>
+  </si>
+  <si>
+    <t>32623-1</t>
+  </si>
+  <si>
+    <t>Immature myeloid cells [#/volume] in Blood</t>
+  </si>
+  <si>
+    <t>Immature myeloid cells</t>
+  </si>
+  <si>
+    <t>6028-8</t>
+  </si>
+  <si>
+    <t>Immature neutrophils [#/volume] in Blood</t>
+  </si>
+  <si>
+    <t>Immature neutrophils</t>
+  </si>
+  <si>
+    <t>6690-2</t>
+  </si>
+  <si>
+    <t>Neutrophils/100 leukocytes in Blood</t>
+  </si>
+  <si>
+    <t>Neutrophils/100 leukocytes</t>
+  </si>
+  <si>
+    <t>Eosinophils/100 leukocytes in Blood</t>
+  </si>
+  <si>
+    <t>Eosinophils/100 leukocytes</t>
+  </si>
+  <si>
+    <t>26485-3</t>
+  </si>
+  <si>
+    <t>Monocytes/100 leukocytes in Blood</t>
+  </si>
+  <si>
+    <t>Monocytes/100 leukocytes</t>
+  </si>
+  <si>
+    <t>26452-3</t>
+  </si>
+  <si>
+    <t>Leukocytes [Presence] in Blood</t>
+  </si>
+  <si>
+    <t>30313-1</t>
+  </si>
+  <si>
+    <t>Platelets [#/volume] in Blood</t>
+  </si>
+  <si>
+    <t>Platelets</t>
+  </si>
+  <si>
+    <t>49498-9</t>
+  </si>
+  <si>
+    <t>White blood cell count [Presence] in Blood</t>
+  </si>
+  <si>
+    <t>White blood cells</t>
+  </si>
+  <si>
+    <t>Query: CREATININE IN BLOOD</t>
+  </si>
+  <si>
+    <t>2160-0</t>
+  </si>
+  <si>
+    <t>Creatinine [Mass/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Creatinine</t>
+  </si>
+  <si>
+    <t>38483-4</t>
+  </si>
+  <si>
+    <t>Creatinine [Mass/volume] in Blood</t>
+  </si>
+  <si>
+    <t>14682-9</t>
+  </si>
+  <si>
+    <t>Creatinine [Moles/volume] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>14959-1</t>
+  </si>
+  <si>
+    <t>Creatinine [Moles/volume] in Urine</t>
+  </si>
+  <si>
+    <t>2161-8</t>
+  </si>
+  <si>
+    <t>Creatinine [Mass/volume] in 24-hour Urine</t>
+  </si>
+  <si>
+    <t>14937-7</t>
+  </si>
+  <si>
+    <t>Creatinine [Moles/volume] in 24-hour Urine</t>
+  </si>
+  <si>
+    <t>11041-1</t>
+  </si>
+  <si>
+    <t>Creatinine [Mass/volume] in Dialysis fluid</t>
+  </si>
+  <si>
+    <t>11042-9</t>
+  </si>
+  <si>
+    <t>Creatinine [Moles/volume] in Dialysis fluid</t>
+  </si>
+  <si>
+    <t>11043-7</t>
+  </si>
+  <si>
+    <t>Creatinine [Mass/volume] in Peritoneal dialysis fluid</t>
+  </si>
+  <si>
+    <t>Periton fld</t>
+  </si>
+  <si>
+    <t>11044-5</t>
+  </si>
+  <si>
+    <t>Creatinine [Moles/volume] in Peritoneal dialysis fluid</t>
+  </si>
+  <si>
+    <t>Query: CHOLESTEROL IN PLASMA</t>
+  </si>
+  <si>
+    <t>13457-7</t>
+  </si>
+  <si>
+    <t>Cholesterol in LDL [Mass/volume] in Serum or Plasma by calculation</t>
+  </si>
+  <si>
+    <t>Cholesterol.in LDL</t>
+  </si>
+  <si>
+    <t>13458-5</t>
+  </si>
+  <si>
+    <t>Cholesterol in VLDL [Mass/volume] in Serum or Plasma by calculation</t>
+  </si>
+  <si>
+    <t>Cholesterol.in VLDL</t>
+  </si>
+  <si>
+    <t>35200-5</t>
+  </si>
+  <si>
+    <t>Cholesterol/Triglyceride [Mass ratio] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Cholesterol/Triglyceride</t>
+  </si>
+  <si>
+    <t>35203-9</t>
+  </si>
+  <si>
+    <t>Cholesterol/Phospholipid [Mass ratio] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Cholesterol/Phospholipid</t>
+  </si>
+  <si>
+    <t>35204-7</t>
+  </si>
+  <si>
+    <t>Cholesterol/Protein [Mass ratio] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Cholesterol/Protein</t>
+  </si>
+  <si>
+    <t>35205-4</t>
+  </si>
+  <si>
+    <t>Cholesterol/Albumin [Mass ratio] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Cholesterol/Albumin</t>
+  </si>
+  <si>
+    <t>35206-2</t>
+  </si>
+  <si>
+    <t>Cholesterol/Globulin [Mass ratio] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Cholesterol/Globulin</t>
+  </si>
+  <si>
+    <t>35207-0</t>
+  </si>
+  <si>
+    <t>Cholesterol/Lipoprotein [Mass ratio] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>Cholesterol/Lipoprotein</t>
   </si>
 </sst>
 </file>
@@ -1056,23 +1649,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="78.73046875" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1089,7 +1685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -1106,7 +1702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1123,7 +1719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -1140,7 +1736,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -1157,7 +1753,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1174,7 +1770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -1191,7 +1787,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -1208,7 +1804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>201</v>
       </c>
@@ -1225,7 +1821,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>213</v>
       </c>
@@ -1242,7 +1838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1259,7 +1855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -1276,7 +1872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -1293,7 +1889,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1310,7 +1906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -1327,7 +1923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1344,7 +1940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -1361,7 +1957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -1378,7 +1974,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -1395,7 +1991,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +2008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1429,7 +2025,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -1446,7 +2042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -1463,7 +2059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1480,7 +2076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1497,7 +2093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -1514,7 +2110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -1531,7 +2127,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1548,7 +2144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1565,7 +2161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1582,7 +2178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -1599,7 +2195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -1616,7 +2212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -1633,7 +2229,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -1650,7 +2246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1667,7 +2263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -1684,7 +2280,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -1701,7 +2297,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>171</v>
       </c>
@@ -1718,7 +2314,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>162</v>
       </c>
@@ -1735,7 +2331,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>134</v>
       </c>
@@ -1752,7 +2348,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -1769,7 +2365,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -1786,7 +2382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -1803,7 +2399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -1820,7 +2416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>216</v>
       </c>
@@ -1837,7 +2433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1854,7 +2450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -1871,7 +2467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>195</v>
       </c>
@@ -1888,7 +2484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>221</v>
       </c>
@@ -1905,7 +2501,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>210</v>
       </c>
@@ -1922,7 +2518,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>198</v>
       </c>
@@ -1939,7 +2535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -1956,7 +2552,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -1973,7 +2569,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -1990,7 +2586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -2007,7 +2603,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>155</v>
       </c>
@@ -2024,7 +2620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2041,7 +2637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -2058,7 +2654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -2075,7 +2671,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -2092,7 +2688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -2109,7 +2705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -2126,7 +2722,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -2143,7 +2739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -2160,7 +2756,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>192</v>
       </c>
@@ -2177,7 +2773,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>184</v>
       </c>
@@ -2194,7 +2790,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>168</v>
       </c>
@@ -2211,7 +2807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -2226,6 +2822,346 @@
       </c>
       <c r="E70" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" t="s">
+        <v>239</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>243</v>
+      </c>
+      <c r="B76" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>249</v>
+      </c>
+      <c r="E77" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" t="s">
+        <v>259</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>260</v>
+      </c>
+      <c r="B82" t="s">
+        <v>261</v>
+      </c>
+      <c r="C82" t="s">
+        <v>262</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>263</v>
+      </c>
+      <c r="B83" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>266</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>269</v>
+      </c>
+      <c r="B85" t="s">
+        <v>270</v>
+      </c>
+      <c r="C85" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>272</v>
+      </c>
+      <c r="B86" t="s">
+        <v>273</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>274</v>
+      </c>
+      <c r="E86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>275</v>
+      </c>
+      <c r="B87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>277</v>
+      </c>
+      <c r="E87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>278</v>
+      </c>
+      <c r="B88" t="s">
+        <v>279</v>
+      </c>
+      <c r="C88" t="s">
+        <v>280</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" t="s">
+        <v>282</v>
+      </c>
+      <c r="C89" t="s">
+        <v>283</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" t="s">
+        <v>285</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2239,21 +3175,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="71.73046875" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2270,7 +3211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -2287,7 +3228,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -2304,7 +3245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -2321,7 +3262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -2338,7 +3279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>201</v>
       </c>
@@ -2355,7 +3296,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>204</v>
       </c>
@@ -2372,7 +3313,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -2389,7 +3330,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -2406,7 +3347,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2423,7 +3364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -2440,7 +3381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -2457,7 +3398,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -2474,7 +3415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -2491,7 +3432,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -2508,7 +3449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2525,7 +3466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -2542,7 +3483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>181</v>
       </c>
@@ -2559,7 +3500,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -2576,7 +3517,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -2593,7 +3534,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -2610,7 +3551,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>207</v>
       </c>
@@ -2627,7 +3568,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -2644,7 +3585,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>221</v>
       </c>
@@ -2661,7 +3602,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -2678,7 +3619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -2695,7 +3636,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -2712,7 +3653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>162</v>
       </c>
@@ -2729,7 +3670,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -2746,7 +3687,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -2763,7 +3704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2780,7 +3721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2797,7 +3738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2814,7 +3755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2831,7 +3772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>213</v>
       </c>
@@ -2848,7 +3789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>198</v>
       </c>
@@ -2865,7 +3806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2882,7 +3823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -2899,7 +3840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2916,7 +3857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>184</v>
       </c>
@@ -2933,7 +3874,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -2950,7 +3891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -2967,7 +3908,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +3925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -3001,7 +3942,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -3018,7 +3959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -3035,7 +3976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -3052,7 +3993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3069,7 +4010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -3086,7 +4027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -3103,7 +4044,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>125</v>
       </c>
@@ -3120,7 +4061,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -3137,7 +4078,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>195</v>
       </c>
@@ -3154,7 +4095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -3171,7 +4112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3188,7 +4129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -3205,7 +4146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -3222,7 +4163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -3239,7 +4180,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -3256,7 +4197,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -3273,7 +4214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -3290,7 +4231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -3307,7 +4248,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -3324,7 +4265,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -3341,7 +4282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -3358,7 +4299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -3375,7 +4316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -3392,7 +4333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>140</v>
       </c>
@@ -3407,6 +4348,346 @@
       </c>
       <c r="E70" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" t="s">
+        <v>288</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" t="s">
+        <v>290</v>
+      </c>
+      <c r="C72" t="s">
+        <v>291</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>297</v>
+      </c>
+      <c r="B75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>307</v>
+      </c>
+      <c r="B78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" t="s">
+        <v>312</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>315</v>
+      </c>
+      <c r="B81" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>317</v>
+      </c>
+      <c r="B82" t="s">
+        <v>318</v>
+      </c>
+      <c r="C82" t="s">
+        <v>294</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>319</v>
+      </c>
+      <c r="B83" t="s">
+        <v>320</v>
+      </c>
+      <c r="C83" t="s">
+        <v>321</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>322</v>
+      </c>
+      <c r="B86" t="s">
+        <v>323</v>
+      </c>
+      <c r="C86" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>325</v>
+      </c>
+      <c r="B87" t="s">
+        <v>326</v>
+      </c>
+      <c r="C87" t="s">
+        <v>324</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>327</v>
+      </c>
+      <c r="B89" t="s">
+        <v>328</v>
+      </c>
+      <c r="C89" t="s">
+        <v>329</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3420,23 +4701,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -3453,7 +4737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -3470,7 +4754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -3487,7 +4771,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3504,7 +4788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -3521,7 +4805,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -3538,7 +4822,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3555,7 +4839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3572,7 +4856,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -3589,7 +4873,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3606,7 +4890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -3623,7 +4907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -3640,7 +4924,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3657,7 +4941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3674,7 +4958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -3691,7 +4975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -3708,7 +4992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -3725,7 +5009,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -3742,7 +5026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>137</v>
       </c>
@@ -3759,7 +5043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -3776,7 +5060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3793,7 +5077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -3810,7 +5094,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -3827,7 +5111,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -3844,7 +5128,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -3861,7 +5145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -3878,7 +5162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -3895,7 +5179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -3912,7 +5196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -3929,7 +5213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>157</v>
       </c>
@@ -3946,7 +5230,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -3963,7 +5247,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>175</v>
       </c>
@@ -3980,7 +5264,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -3997,7 +5281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4014,7 +5298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -4031,7 +5315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -4048,7 +5332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>210</v>
       </c>
@@ -4065,7 +5349,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -4082,7 +5366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -4099,7 +5383,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>159</v>
       </c>
@@ -4116,7 +5400,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -4133,7 +5417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -4150,7 +5434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -4167,7 +5451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -4184,7 +5468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -4201,7 +5485,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -4218,7 +5502,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>140</v>
       </c>
@@ -4235,7 +5519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -4252,7 +5536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -4269,7 +5553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -4286,7 +5570,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -4303,7 +5587,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -4320,7 +5604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -4337,7 +5621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -4354,7 +5638,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -4371,7 +5655,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -4388,7 +5672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -4405,7 +5689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>216</v>
       </c>
@@ -4422,7 +5706,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>181</v>
       </c>
@@ -4439,7 +5723,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -4456,7 +5740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -4473,7 +5757,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -4490,7 +5774,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -4507,7 +5791,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -4524,7 +5808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>171</v>
       </c>
@@ -4541,7 +5825,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -4558,7 +5842,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -4575,7 +5859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -4590,10 +5874,2952 @@
       </c>
       <c r="E70" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>330</v>
+      </c>
+      <c r="B75" t="s">
+        <v>331</v>
+      </c>
+      <c r="C75" t="s">
+        <v>332</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>333</v>
+      </c>
+      <c r="B76" t="s">
+        <v>334</v>
+      </c>
+      <c r="C76" t="s">
+        <v>335</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>336</v>
+      </c>
+      <c r="B77" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" t="s">
+        <v>338</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>339</v>
+      </c>
+      <c r="B78" t="s">
+        <v>340</v>
+      </c>
+      <c r="C78" t="s">
+        <v>341</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>342</v>
+      </c>
+      <c r="B79" t="s">
+        <v>343</v>
+      </c>
+      <c r="C79" t="s">
+        <v>344</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>345</v>
+      </c>
+      <c r="B80" t="s">
+        <v>346</v>
+      </c>
+      <c r="C80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>347</v>
+      </c>
+      <c r="B81" t="s">
+        <v>348</v>
+      </c>
+      <c r="C81" t="s">
+        <v>349</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>351</v>
+      </c>
+      <c r="B82" t="s">
+        <v>352</v>
+      </c>
+      <c r="C82" t="s">
+        <v>353</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>354</v>
+      </c>
+      <c r="B83" t="s">
+        <v>355</v>
+      </c>
+      <c r="C83" t="s">
+        <v>356</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>357</v>
+      </c>
+      <c r="B84" t="s">
+        <v>358</v>
+      </c>
+      <c r="C84" t="s">
+        <v>359</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>360</v>
+      </c>
+      <c r="B85" t="s">
+        <v>361</v>
+      </c>
+      <c r="C85" t="s">
+        <v>362</v>
+      </c>
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>330</v>
+      </c>
+      <c r="B86" t="s">
+        <v>363</v>
+      </c>
+      <c r="C86" t="s">
+        <v>364</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>365</v>
+      </c>
+      <c r="B87" t="s">
+        <v>366</v>
+      </c>
+      <c r="C87" t="s">
+        <v>367</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>368</v>
+      </c>
+      <c r="B88" t="s">
+        <v>369</v>
+      </c>
+      <c r="C88" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>370</v>
+      </c>
+      <c r="B89" t="s">
+        <v>371</v>
+      </c>
+      <c r="C89" t="s">
+        <v>372</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>373</v>
+      </c>
+      <c r="B90" t="s">
+        <v>374</v>
+      </c>
+      <c r="C90" t="s">
+        <v>375</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="68" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2090631F-AD15-41F6-8084-6526B5B81518}">
+  <dimension ref="A1:E78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C68" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5316813A-A66B-4A72-9DA0-0BE0E64A9EA4}">
+  <dimension ref="A1:E76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" t="s">
+        <v>417</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>